--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="123">
   <si>
     <t>Index</t>
   </si>
@@ -32,6 +32,12 @@
     <t>Dep Label</t>
   </si>
   <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Intent</t>
+  </si>
+  <si>
     <t>Tôi</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
     <t>punct</t>
   </si>
   <si>
+    <t>học</t>
+  </si>
+  <si>
+    <t>môi_trường</t>
+  </si>
+  <si>
     <t>Cho</t>
   </si>
   <si>
@@ -107,130 +119,268 @@
     <t>dob</t>
   </si>
   <si>
-    <t>học</t>
+    <t>một</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>det</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>âm_nhạc</t>
+  </si>
+  <si>
+    <t>cần</t>
+  </si>
+  <si>
+    <t>nắm</t>
+  </si>
+  <si>
+    <t>vững</t>
+  </si>
+  <si>
+    <t>prp</t>
+  </si>
+  <si>
+    <t>công_nghệ</t>
+  </si>
+  <si>
+    <t>Hãy</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>giúp</t>
+  </si>
+  <si>
+    <t>du_lịch</t>
+  </si>
+  <si>
+    <t>tìm_hiểu</t>
+  </si>
+  <si>
+    <t>kinh_doanh</t>
+  </si>
+  <si>
+    <t>danh_sách</t>
+  </si>
+  <si>
+    <t>iob</t>
+  </si>
+  <si>
+    <t>y_tế</t>
+  </si>
+  <si>
+    <t>công_việc</t>
+  </si>
+  <si>
+    <t>văn_phòng</t>
+  </si>
+  <si>
+    <t>lấy</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>từ</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>liên_quan</t>
+  </si>
+  <si>
+    <t>tới</t>
+  </si>
+  <si>
+    <t>giáo_dục</t>
+  </si>
+  <si>
+    <t>khoa_học</t>
+  </si>
+  <si>
+    <t>nghệ_thuật</t>
+  </si>
+  <si>
+    <t>chính_trị</t>
+  </si>
+  <si>
+    <t>tạo</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>bộ</t>
+  </si>
+  <si>
+    <t>đến</t>
+  </si>
+  <si>
+    <t>trái_cây</t>
+  </si>
+  <si>
+    <t>thời_tiết</t>
+  </si>
+  <si>
+    <t>lịch_sử</t>
+  </si>
+  <si>
+    <t>công_nghiệp</t>
+  </si>
+  <si>
+    <t>văn_hoá</t>
+  </si>
+  <si>
+    <t>thực_phẩm</t>
+  </si>
+  <si>
+    <t>kỹ_thuật</t>
+  </si>
+  <si>
+    <t>trò_chơi</t>
+  </si>
+  <si>
+    <t>điện_tử</t>
+  </si>
+  <si>
+    <t>cá</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>thiên_văn_học</t>
+  </si>
+  <si>
+    <t>khoa_học_xã_hội</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>văn_bản_học</t>
+  </si>
+  <si>
+    <t>thể_dục</t>
+  </si>
+  <si>
+    <t>tiếng</t>
+  </si>
+  <si>
+    <t>B-MISC</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>I-MISC</t>
+  </si>
+  <si>
+    <t>ngân_hàng</t>
+  </si>
+  <si>
+    <t>truyền_thông</t>
+  </si>
+  <si>
+    <t>cộng_đồng</t>
+  </si>
+  <si>
+    <t>ngành</t>
   </si>
   <si>
     <t>công_nghệ_thông_tin</t>
   </si>
   <si>
-    <t>tìm_hiểu</t>
-  </si>
-  <si>
-    <t>thể_thao</t>
-  </si>
-  <si>
-    <t>Hãy</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>adv</t>
-  </si>
-  <si>
-    <t>giúp</t>
-  </si>
-  <si>
-    <t>du_lịch</t>
-  </si>
-  <si>
-    <t>cần</t>
-  </si>
-  <si>
-    <t>kỹ_năng</t>
-  </si>
-  <si>
-    <t>làm_việc</t>
-  </si>
-  <si>
-    <t>công_việc</t>
-  </si>
-  <si>
-    <t>văn_phòng</t>
-  </si>
-  <si>
-    <t>âm_nhạc</t>
-  </si>
-  <si>
-    <t>nắm</t>
-  </si>
-  <si>
-    <t>vững</t>
-  </si>
-  <si>
-    <t>prp</t>
-  </si>
-  <si>
-    <t>y_tế</t>
-  </si>
-  <si>
-    <t>chủ_đề</t>
-  </si>
-  <si>
-    <t>khoa_học</t>
-  </si>
-  <si>
-    <t>tạo</t>
-  </si>
-  <si>
-    <t>cho</t>
-  </si>
-  <si>
-    <t>iob</t>
-  </si>
-  <si>
-    <t>một</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>det</t>
-  </si>
-  <si>
-    <t>bộ</t>
-  </si>
-  <si>
-    <t>liên_quan</t>
-  </si>
-  <si>
-    <t>đến</t>
-  </si>
-  <si>
-    <t>trái_cây</t>
-  </si>
-  <si>
-    <t>môi_trường</t>
-  </si>
-  <si>
-    <t>công_nghiệp</t>
-  </si>
-  <si>
-    <t>địa_lý</t>
-  </si>
-  <si>
-    <t>phim_ảnh</t>
-  </si>
-  <si>
-    <t>thời_tiết</t>
-  </si>
-  <si>
-    <t>lịch_sử</t>
-  </si>
-  <si>
-    <t>nghệ_thuật</t>
-  </si>
-  <si>
-    <t>trò_chơi</t>
-  </si>
-  <si>
-    <t>điện_tử</t>
-  </si>
-  <si>
-    <t>chính_trị</t>
-  </si>
-  <si>
-    <t>kinh_tế</t>
+    <t>pháp_luật</t>
+  </si>
+  <si>
+    <t>ngôn_ngữ_học</t>
+  </si>
+  <si>
+    <t>máy_tính</t>
+  </si>
+  <si>
+    <t>chăm_sóc</t>
+  </si>
+  <si>
+    <t>sức_khoẻ</t>
+  </si>
+  <si>
+    <t>nhà_hàng</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>giải_trí</t>
+  </si>
+  <si>
+    <t>phong_cách</t>
+  </si>
+  <si>
+    <t>sống</t>
+  </si>
+  <si>
+    <t>quản_lý</t>
+  </si>
+  <si>
+    <t>dự_án</t>
+  </si>
+  <si>
+    <t>bán</t>
+  </si>
+  <si>
+    <t>hàng</t>
+  </si>
+  <si>
+    <t>phân_tích</t>
+  </si>
+  <si>
+    <t>dữ_liệu</t>
+  </si>
+  <si>
+    <t>địa_phương</t>
+  </si>
+  <si>
+    <t>lĩnh_vực</t>
+  </si>
+  <si>
+    <t>đại_học</t>
+  </si>
+  <si>
+    <t>quảng_cáo</t>
+  </si>
+  <si>
+    <t>quan_hệ</t>
+  </si>
+  <si>
+    <t>công_chúng</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>khởi_nghiệp</t>
+  </si>
+  <si>
+    <t>tài_chính</t>
   </si>
 </sst>
 </file>
@@ -275,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:H461"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -300,25 +450,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -326,19 +482,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -346,19 +502,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -366,19 +522,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>3.0</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -386,19 +542,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>2.0</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -406,19 +562,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>5.0</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -426,19 +582,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -446,19 +605,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>7.0</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -466,76 +625,56 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -543,139 +682,122 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>2.0</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -683,179 +805,162 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B27" t="s">
         <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F28" t="s">
         <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -863,499 +968,442 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
         <v>2.0</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
         <v>2.0</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>2.0</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -1363,362 +1411,328 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
         <v>1.0</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.0</v>
-      </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
         <v>2.0</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -1726,19 +1740,19 @@
         <v>1.0</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
         <v>2.0</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
@@ -1746,19 +1760,19 @@
         <v>2.0</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
         <v>0.0</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -1766,19 +1780,19 @@
         <v>3.0</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
         <v>2.0</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -1786,19 +1800,19 @@
         <v>4.0</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -1806,19 +1820,19 @@
         <v>5.0</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -1826,19 +1840,19 @@
         <v>6.0</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -1846,18 +1860,21 @@
         <v>7.0</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
         <v>6.0</v>
       </c>
       <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1866,379 +1883,325 @@
         <v>8.0</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
         <v>2.0</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
         <v>1.0</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.0</v>
-      </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
         <v>5.0</v>
       </c>
-      <c r="B95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>3.0</v>
-      </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -2246,19 +2209,19 @@
         <v>1.0</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F99" t="s">
         <v>11</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -2266,19 +2229,19 @@
         <v>2.0</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -2286,19 +2249,19 @@
         <v>3.0</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
@@ -2306,19 +2269,19 @@
         <v>4.0</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
         <v>3.0</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -2326,19 +2289,19 @@
         <v>5.0</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104">
@@ -2346,19 +2309,19 @@
         <v>6.0</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E104" t="n">
         <v>5.0</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -2366,96 +2329,79 @@
         <v>7.0</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E106" t="n">
         <v>2.0</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
         <v>2.0</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -2463,522 +2409,471 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E111" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
         <v>2.0</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E117" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F119" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E120" t="n">
         <v>2.0</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E121" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E124" t="n">
         <v>3.0</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="n">
         <v>5.0</v>
       </c>
-      <c r="B125" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.0</v>
-      </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F127" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="n">
         <v>1.0</v>
       </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.0</v>
-      </c>
       <c r="F129" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E131" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E132" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="n">
         <v>5.0</v>
       </c>
-      <c r="B133" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F133" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B134" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E134" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
@@ -2986,19 +2881,19 @@
         <v>1.0</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E136" t="n">
         <v>2.0</v>
       </c>
       <c r="F136" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -3006,19 +2901,19 @@
         <v>2.0</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E137" t="n">
         <v>0.0</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
@@ -3026,19 +2921,19 @@
         <v>3.0</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E138" t="n">
         <v>2.0</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
@@ -3046,19 +2941,19 @@
         <v>4.0</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E139" t="n">
         <v>3.0</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -3066,19 +2961,19 @@
         <v>5.0</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E140" t="n">
         <v>3.0</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141">
@@ -3086,19 +2981,19 @@
         <v>6.0</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E141" t="n">
         <v>5.0</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
@@ -3106,18 +3001,21 @@
         <v>7.0</v>
       </c>
       <c r="B142" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E142" t="n">
         <v>6.0</v>
       </c>
       <c r="F142" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3126,256 +3024,219 @@
         <v>8.0</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
         <v>2.0</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" t="s">
-        <v>36</v>
-      </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E147" t="n">
         <v>2.0</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E148" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E149" t="n">
         <v>4.0</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E150" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E151" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E152" t="n">
         <v>2.0</v>
       </c>
       <c r="F152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F153" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F154" t="s">
         <v>11</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F154" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E155" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -3383,82 +3244,5563 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E157" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B158" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E158" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>76</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>77</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
         <v>8.0</v>
       </c>
-      <c r="B159" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>78</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F178" t="s">
         <v>26</v>
       </c>
-      <c r="D159" t="s">
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" t="s">
+        <v>46</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>68</v>
+      </c>
+      <c r="C183" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>62</v>
+      </c>
+      <c r="C189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F190" t="s">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B193" t="s">
         <v>8</v>
       </c>
-      <c r="E159" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>81</v>
+      </c>
+      <c r="C198" t="s">
+        <v>82</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>24</v>
+      </c>
+      <c r="G198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B199" t="s">
         <v>27</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F203" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F205" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>83</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F206" t="s">
+        <v>24</v>
+      </c>
+      <c r="G206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>41</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>21</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>57</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>59</v>
+      </c>
+      <c r="C221" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>61</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>86</v>
+      </c>
+      <c r="C224" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>24</v>
+      </c>
+      <c r="G224" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>20</v>
+      </c>
+      <c r="C231" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F232" t="s">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>35</v>
+      </c>
+      <c r="C237" t="s">
+        <v>36</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>88</v>
+      </c>
+      <c r="C241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241" t="s">
+        <v>89</v>
+      </c>
+      <c r="E241" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>90</v>
+      </c>
+      <c r="C242" t="s">
+        <v>91</v>
+      </c>
+      <c r="D242" t="s">
+        <v>92</v>
+      </c>
+      <c r="E242" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>51</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F244" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>41</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>42</v>
+      </c>
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F250" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>93</v>
+      </c>
+      <c r="C252" t="s">
+        <v>23</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F252" t="s">
+        <v>24</v>
+      </c>
+      <c r="G252" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F253" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>45</v>
+      </c>
+      <c r="C255" t="s">
+        <v>46</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F255" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>33</v>
+      </c>
+      <c r="C257" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F257" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>30</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>20</v>
+      </c>
+      <c r="C260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>94</v>
+      </c>
+      <c r="C261" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F261" t="s">
+        <v>24</v>
+      </c>
+      <c r="G261" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F262" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>20</v>
+      </c>
+      <c r="C268" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>55</v>
+      </c>
+      <c r="C269" t="s">
+        <v>23</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F269" t="s">
+        <v>24</v>
+      </c>
+      <c r="G269" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>95</v>
+      </c>
+      <c r="C270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>32</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>35</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F275" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>96</v>
+      </c>
+      <c r="C278" t="s">
+        <v>23</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>24</v>
+      </c>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>97</v>
+      </c>
+      <c r="C279" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F279" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F280" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
+        <v>10</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>40</v>
+      </c>
+      <c r="C283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" t="s">
+        <v>10</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F283" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>41</v>
+      </c>
+      <c r="C284" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>42</v>
+      </c>
+      <c r="C285" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" t="s">
+        <v>10</v>
+      </c>
+      <c r="E285" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F286" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>20</v>
+      </c>
+      <c r="C287" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F287" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>98</v>
+      </c>
+      <c r="C288" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>24</v>
+      </c>
+      <c r="G288" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F289" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>45</v>
+      </c>
+      <c r="C291" t="s">
+        <v>46</v>
+      </c>
+      <c r="D291" t="s">
+        <v>10</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F291" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>67</v>
+      </c>
+      <c r="C292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>68</v>
+      </c>
+      <c r="C293" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F293" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>33</v>
+      </c>
+      <c r="C294" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>10</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F294" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>35</v>
+      </c>
+      <c r="C295" t="s">
+        <v>36</v>
+      </c>
+      <c r="D295" t="s">
+        <v>10</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F295" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>69</v>
+      </c>
+      <c r="C296" t="s">
+        <v>23</v>
+      </c>
+      <c r="D296" t="s">
+        <v>10</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F296" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>19</v>
+      </c>
+      <c r="C297" t="s">
+        <v>13</v>
+      </c>
+      <c r="D297" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>61</v>
+      </c>
+      <c r="C298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>62</v>
+      </c>
+      <c r="C299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" t="s">
+        <v>10</v>
+      </c>
+      <c r="E299" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>99</v>
+      </c>
+      <c r="C300" t="s">
+        <v>23</v>
+      </c>
+      <c r="D300" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F300" t="s">
+        <v>24</v>
+      </c>
+      <c r="G300" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>30</v>
+      </c>
+      <c r="C305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D305" t="s">
+        <v>10</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>19</v>
+      </c>
+      <c r="C306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" t="s">
+        <v>10</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" t="s">
+        <v>10</v>
+      </c>
+      <c r="E307" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>77</v>
+      </c>
+      <c r="C308" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308" t="s">
+        <v>10</v>
+      </c>
+      <c r="E308" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F308" t="s">
+        <v>24</v>
+      </c>
+      <c r="G308" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>100</v>
+      </c>
+      <c r="C309" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309" t="s">
+        <v>10</v>
+      </c>
+      <c r="E309" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F309" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>27</v>
+      </c>
+      <c r="C310" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" t="s">
+        <v>10</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F310" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>32</v>
+      </c>
+      <c r="C312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" t="s">
+        <v>10</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" t="s">
+        <v>10</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F313" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>35</v>
+      </c>
+      <c r="C314" t="s">
+        <v>36</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F314" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>52</v>
+      </c>
+      <c r="C315" t="s">
+        <v>23</v>
+      </c>
+      <c r="D315" t="s">
+        <v>10</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F315" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F316" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>20</v>
+      </c>
+      <c r="C317" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" t="s">
+        <v>10</v>
+      </c>
+      <c r="E317" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F317" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>101</v>
+      </c>
+      <c r="C318" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>102</v>
+      </c>
+      <c r="C319" t="s">
+        <v>23</v>
+      </c>
+      <c r="D319" t="s">
+        <v>10</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F319" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>27</v>
+      </c>
+      <c r="C320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F320" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F322" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>40</v>
+      </c>
+      <c r="C323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" t="s">
+        <v>10</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>41</v>
+      </c>
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>42</v>
+      </c>
+      <c r="C325" t="s">
+        <v>18</v>
+      </c>
+      <c r="D325" t="s">
+        <v>10</v>
+      </c>
+      <c r="E325" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F325" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>19</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" t="s">
+        <v>10</v>
+      </c>
+      <c r="E326" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F326" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>20</v>
+      </c>
+      <c r="C327" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" t="s">
+        <v>10</v>
+      </c>
+      <c r="E327" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F327" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>103</v>
+      </c>
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328" t="s">
+        <v>10</v>
+      </c>
+      <c r="E328" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F328" t="s">
+        <v>24</v>
+      </c>
+      <c r="G328" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B329" t="s">
+        <v>27</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>10</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F329" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>45</v>
+      </c>
+      <c r="C331" t="s">
+        <v>46</v>
+      </c>
+      <c r="D331" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F331" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>57</v>
+      </c>
+      <c r="C332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>104</v>
+      </c>
+      <c r="C333" t="s">
+        <v>36</v>
+      </c>
+      <c r="D333" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F333" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>59</v>
+      </c>
+      <c r="C334" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F334" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>61</v>
+      </c>
+      <c r="C335" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" t="s">
+        <v>10</v>
+      </c>
+      <c r="E335" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>62</v>
+      </c>
+      <c r="C336" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>105</v>
+      </c>
+      <c r="C337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" t="s">
+        <v>10</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F337" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>27</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>10</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F338" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" t="s">
+        <v>10</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F340" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" t="s">
+        <v>10</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>30</v>
+      </c>
+      <c r="C342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" t="s">
+        <v>10</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F342" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" t="s">
+        <v>10</v>
+      </c>
+      <c r="E343" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F343" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>20</v>
+      </c>
+      <c r="C344" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" t="s">
+        <v>10</v>
+      </c>
+      <c r="E344" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>106</v>
+      </c>
+      <c r="C345" t="s">
+        <v>23</v>
+      </c>
+      <c r="D345" t="s">
+        <v>10</v>
+      </c>
+      <c r="E345" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F345" t="s">
+        <v>24</v>
+      </c>
+      <c r="G345" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>107</v>
+      </c>
+      <c r="C346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" t="s">
+        <v>10</v>
+      </c>
+      <c r="E346" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F346" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>27</v>
+      </c>
+      <c r="C347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" t="s">
+        <v>10</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F347" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>32</v>
+      </c>
+      <c r="C349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s">
+        <v>10</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>33</v>
+      </c>
+      <c r="C350" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" t="s">
+        <v>10</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F350" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>35</v>
+      </c>
+      <c r="C351" t="s">
+        <v>36</v>
+      </c>
+      <c r="D351" t="s">
+        <v>10</v>
+      </c>
+      <c r="E351" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F351" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" t="s">
+        <v>10</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>20</v>
+      </c>
+      <c r="C353" t="s">
+        <v>21</v>
+      </c>
+      <c r="D353" t="s">
+        <v>10</v>
+      </c>
+      <c r="E353" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F353" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>108</v>
+      </c>
+      <c r="C354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" t="s">
+        <v>10</v>
+      </c>
+      <c r="E354" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F354" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>109</v>
+      </c>
+      <c r="C355" t="s">
+        <v>23</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+      <c r="E355" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F355" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" t="s">
+        <v>10</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F356" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" t="s">
+        <v>10</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F358" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>40</v>
+      </c>
+      <c r="C359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" t="s">
+        <v>10</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F359" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>41</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" t="s">
+        <v>10</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F360" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>42</v>
+      </c>
+      <c r="C361" t="s">
+        <v>18</v>
+      </c>
+      <c r="D361" t="s">
+        <v>10</v>
+      </c>
+      <c r="E361" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F361" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>19</v>
+      </c>
+      <c r="C362" t="s">
+        <v>13</v>
+      </c>
+      <c r="D362" t="s">
+        <v>10</v>
+      </c>
+      <c r="E362" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F362" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>20</v>
+      </c>
+      <c r="C363" t="s">
+        <v>13</v>
+      </c>
+      <c r="D363" t="s">
+        <v>10</v>
+      </c>
+      <c r="E363" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F363" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>110</v>
+      </c>
+      <c r="C364" t="s">
+        <v>13</v>
+      </c>
+      <c r="D364" t="s">
+        <v>10</v>
+      </c>
+      <c r="E364" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F364" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>111</v>
+      </c>
+      <c r="C365" t="s">
+        <v>23</v>
+      </c>
+      <c r="D365" t="s">
+        <v>10</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F365" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>27</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>10</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F366" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>45</v>
+      </c>
+      <c r="C368" t="s">
+        <v>46</v>
+      </c>
+      <c r="D368" t="s">
+        <v>10</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F368" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>48</v>
+      </c>
+      <c r="C369" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" t="s">
+        <v>10</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F369" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>33</v>
+      </c>
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" t="s">
+        <v>10</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F370" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>30</v>
+      </c>
+      <c r="C371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D371" t="s">
+        <v>10</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F371" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>19</v>
+      </c>
+      <c r="C372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F372" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373" t="s">
+        <v>10</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F373" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>112</v>
+      </c>
+      <c r="C374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D374" t="s">
+        <v>10</v>
+      </c>
+      <c r="E374" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F374" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>113</v>
+      </c>
+      <c r="C375" t="s">
+        <v>23</v>
+      </c>
+      <c r="D375" t="s">
+        <v>10</v>
+      </c>
+      <c r="E375" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F375" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>27</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>10</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F376" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" t="s">
+        <v>10</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F378" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379" t="s">
+        <v>13</v>
+      </c>
+      <c r="D379" t="s">
+        <v>10</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F379" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>50</v>
+      </c>
+      <c r="C380" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" t="s">
+        <v>10</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F380" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" t="s">
+        <v>13</v>
+      </c>
+      <c r="D381" t="s">
+        <v>10</v>
+      </c>
+      <c r="E381" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F381" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>20</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382" t="s">
+        <v>10</v>
+      </c>
+      <c r="E382" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F382" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>75</v>
+      </c>
+      <c r="C383" t="s">
+        <v>23</v>
+      </c>
+      <c r="D383" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F383" t="s">
+        <v>24</v>
+      </c>
+      <c r="G383" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>114</v>
+      </c>
+      <c r="C384" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384" t="s">
+        <v>10</v>
+      </c>
+      <c r="E384" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F384" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+      <c r="C385" t="s">
+        <v>28</v>
+      </c>
+      <c r="D385" t="s">
+        <v>10</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F385" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>32</v>
+      </c>
+      <c r="C387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" t="s">
+        <v>10</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F387" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F388" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>35</v>
+      </c>
+      <c r="C389" t="s">
+        <v>36</v>
+      </c>
+      <c r="D389" t="s">
+        <v>10</v>
+      </c>
+      <c r="E389" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F389" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>52</v>
+      </c>
+      <c r="C390" t="s">
+        <v>23</v>
+      </c>
+      <c r="D390" t="s">
+        <v>10</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F390" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>19</v>
+      </c>
+      <c r="C391" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" t="s">
+        <v>10</v>
+      </c>
+      <c r="E391" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F391" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>20</v>
+      </c>
+      <c r="C392" t="s">
+        <v>21</v>
+      </c>
+      <c r="D392" t="s">
+        <v>10</v>
+      </c>
+      <c r="E392" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F392" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>79</v>
+      </c>
+      <c r="C393" t="s">
+        <v>23</v>
+      </c>
+      <c r="D393" t="s">
+        <v>10</v>
+      </c>
+      <c r="E393" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F393" t="s">
+        <v>24</v>
+      </c>
+      <c r="G393" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>27</v>
+      </c>
+      <c r="C394" t="s">
+        <v>28</v>
+      </c>
+      <c r="D394" t="s">
+        <v>10</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F394" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" t="s">
+        <v>10</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F396" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>40</v>
+      </c>
+      <c r="C397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397" t="s">
+        <v>10</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F397" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>41</v>
+      </c>
+      <c r="C398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" t="s">
+        <v>10</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F398" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>42</v>
+      </c>
+      <c r="C399" t="s">
+        <v>18</v>
+      </c>
+      <c r="D399" t="s">
+        <v>10</v>
+      </c>
+      <c r="E399" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F399" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>19</v>
+      </c>
+      <c r="C400" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" t="s">
+        <v>10</v>
+      </c>
+      <c r="E400" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F400" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>20</v>
+      </c>
+      <c r="C401" t="s">
+        <v>21</v>
+      </c>
+      <c r="D401" t="s">
+        <v>10</v>
+      </c>
+      <c r="E401" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F401" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>115</v>
+      </c>
+      <c r="C402" t="s">
+        <v>23</v>
+      </c>
+      <c r="D402" t="s">
+        <v>10</v>
+      </c>
+      <c r="E402" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F402" t="s">
+        <v>24</v>
+      </c>
+      <c r="G402" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>54</v>
+      </c>
+      <c r="C403" t="s">
+        <v>23</v>
+      </c>
+      <c r="D403" t="s">
+        <v>10</v>
+      </c>
+      <c r="E403" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F403" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>27</v>
+      </c>
+      <c r="C404" t="s">
+        <v>28</v>
+      </c>
+      <c r="D404" t="s">
+        <v>10</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F404" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>45</v>
+      </c>
+      <c r="C406" t="s">
+        <v>46</v>
+      </c>
+      <c r="D406" t="s">
+        <v>10</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F406" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>67</v>
+      </c>
+      <c r="C407" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" t="s">
+        <v>10</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F407" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>68</v>
+      </c>
+      <c r="C408" t="s">
+        <v>21</v>
+      </c>
+      <c r="D408" t="s">
+        <v>10</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F408" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>33</v>
+      </c>
+      <c r="C409" t="s">
+        <v>9</v>
+      </c>
+      <c r="D409" t="s">
+        <v>10</v>
+      </c>
+      <c r="E409" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F409" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>35</v>
+      </c>
+      <c r="C410" t="s">
+        <v>36</v>
+      </c>
+      <c r="D410" t="s">
+        <v>10</v>
+      </c>
+      <c r="E410" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F410" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>69</v>
+      </c>
+      <c r="C411" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411" t="s">
+        <v>10</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F411" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>19</v>
+      </c>
+      <c r="C412" t="s">
+        <v>13</v>
+      </c>
+      <c r="D412" t="s">
+        <v>10</v>
+      </c>
+      <c r="E412" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F412" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>61</v>
+      </c>
+      <c r="C413" t="s">
+        <v>13</v>
+      </c>
+      <c r="D413" t="s">
+        <v>10</v>
+      </c>
+      <c r="E413" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F413" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>62</v>
+      </c>
+      <c r="C414" t="s">
+        <v>21</v>
+      </c>
+      <c r="D414" t="s">
+        <v>10</v>
+      </c>
+      <c r="E414" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F414" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>63</v>
+      </c>
+      <c r="C415" t="s">
+        <v>23</v>
+      </c>
+      <c r="D415" t="s">
+        <v>10</v>
+      </c>
+      <c r="E415" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F415" t="s">
+        <v>24</v>
+      </c>
+      <c r="G415" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>116</v>
+      </c>
+      <c r="C416" t="s">
+        <v>23</v>
+      </c>
+      <c r="D416" t="s">
+        <v>10</v>
+      </c>
+      <c r="E416" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F416" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>27</v>
+      </c>
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" t="s">
+        <v>10</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F417" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" t="s">
+        <v>10</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F419" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>12</v>
+      </c>
+      <c r="C420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D420" t="s">
+        <v>10</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F420" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>30</v>
+      </c>
+      <c r="C421" t="s">
+        <v>13</v>
+      </c>
+      <c r="D421" t="s">
+        <v>10</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F421" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>19</v>
+      </c>
+      <c r="C422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D422" t="s">
+        <v>10</v>
+      </c>
+      <c r="E422" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F422" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B423" t="s">
+        <v>20</v>
+      </c>
+      <c r="C423" t="s">
+        <v>21</v>
+      </c>
+      <c r="D423" t="s">
+        <v>10</v>
+      </c>
+      <c r="E423" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F423" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>96</v>
+      </c>
+      <c r="C424" t="s">
+        <v>23</v>
+      </c>
+      <c r="D424" t="s">
+        <v>10</v>
+      </c>
+      <c r="E424" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F424" t="s">
+        <v>24</v>
+      </c>
+      <c r="G424" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B425" t="s">
+        <v>117</v>
+      </c>
+      <c r="C425" t="s">
+        <v>13</v>
+      </c>
+      <c r="D425" t="s">
+        <v>10</v>
+      </c>
+      <c r="E425" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F425" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B426" t="s">
+        <v>27</v>
+      </c>
+      <c r="C426" t="s">
+        <v>28</v>
+      </c>
+      <c r="D426" t="s">
+        <v>10</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F426" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B428" t="s">
+        <v>32</v>
+      </c>
+      <c r="C428" t="s">
+        <v>13</v>
+      </c>
+      <c r="D428" t="s">
+        <v>10</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F428" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B429" t="s">
+        <v>33</v>
+      </c>
+      <c r="C429" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" t="s">
+        <v>10</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F429" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430" t="s">
+        <v>36</v>
+      </c>
+      <c r="D430" t="s">
+        <v>10</v>
+      </c>
+      <c r="E430" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F430" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B431" t="s">
+        <v>19</v>
+      </c>
+      <c r="C431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431" t="s">
+        <v>10</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F431" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B432" t="s">
+        <v>20</v>
+      </c>
+      <c r="C432" t="s">
+        <v>21</v>
+      </c>
+      <c r="D432" t="s">
+        <v>10</v>
+      </c>
+      <c r="E432" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F432" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B433" t="s">
+        <v>118</v>
+      </c>
+      <c r="C433" t="s">
+        <v>23</v>
+      </c>
+      <c r="D433" t="s">
+        <v>10</v>
+      </c>
+      <c r="E433" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F433" t="s">
+        <v>24</v>
+      </c>
+      <c r="G433" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B434" t="s">
+        <v>119</v>
+      </c>
+      <c r="C434" t="s">
+        <v>23</v>
+      </c>
+      <c r="D434" t="s">
+        <v>10</v>
+      </c>
+      <c r="E434" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F434" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B435" t="s">
+        <v>27</v>
+      </c>
+      <c r="C435" t="s">
+        <v>28</v>
+      </c>
+      <c r="D435" t="s">
+        <v>10</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F435" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B437" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" t="s">
+        <v>10</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F437" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B438" t="s">
+        <v>40</v>
+      </c>
+      <c r="C438" t="s">
+        <v>13</v>
+      </c>
+      <c r="D438" t="s">
+        <v>10</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F438" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>41</v>
+      </c>
+      <c r="C439" t="s">
+        <v>13</v>
+      </c>
+      <c r="D439" t="s">
+        <v>10</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F439" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B440" t="s">
+        <v>42</v>
+      </c>
+      <c r="C440" t="s">
+        <v>18</v>
+      </c>
+      <c r="D440" t="s">
+        <v>10</v>
+      </c>
+      <c r="E440" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F440" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B441" t="s">
+        <v>19</v>
+      </c>
+      <c r="C441" t="s">
+        <v>13</v>
+      </c>
+      <c r="D441" t="s">
+        <v>10</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F441" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B442" t="s">
+        <v>20</v>
+      </c>
+      <c r="C442" t="s">
+        <v>21</v>
+      </c>
+      <c r="D442" t="s">
+        <v>10</v>
+      </c>
+      <c r="E442" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F442" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B443" t="s">
+        <v>97</v>
+      </c>
+      <c r="C443" t="s">
+        <v>23</v>
+      </c>
+      <c r="D443" t="s">
+        <v>10</v>
+      </c>
+      <c r="E443" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F443" t="s">
+        <v>24</v>
+      </c>
+      <c r="G443" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B444" t="s">
+        <v>27</v>
+      </c>
+      <c r="C444" t="s">
+        <v>28</v>
+      </c>
+      <c r="D444" t="s">
+        <v>10</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F444" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>45</v>
+      </c>
+      <c r="C446" t="s">
+        <v>46</v>
+      </c>
+      <c r="D446" t="s">
+        <v>10</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F446" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>57</v>
+      </c>
+      <c r="C447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447" t="s">
+        <v>10</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F447" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>120</v>
+      </c>
+      <c r="C448" t="s">
+        <v>36</v>
+      </c>
+      <c r="D448" t="s">
+        <v>10</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F448" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>59</v>
+      </c>
+      <c r="C449" t="s">
+        <v>21</v>
+      </c>
+      <c r="D449" t="s">
+        <v>10</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F449" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>61</v>
+      </c>
+      <c r="C450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450" t="s">
+        <v>10</v>
+      </c>
+      <c r="E450" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F450" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>62</v>
+      </c>
+      <c r="C451" t="s">
+        <v>21</v>
+      </c>
+      <c r="D451" t="s">
+        <v>10</v>
+      </c>
+      <c r="E451" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F451" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B452" t="s">
+        <v>121</v>
+      </c>
+      <c r="C452" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" t="s">
+        <v>10</v>
+      </c>
+      <c r="E452" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F452" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>27</v>
+      </c>
+      <c r="C453" t="s">
+        <v>28</v>
+      </c>
+      <c r="D453" t="s">
+        <v>10</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F453" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" t="s">
+        <v>9</v>
+      </c>
+      <c r="D455" t="s">
+        <v>10</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F455" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>12</v>
+      </c>
+      <c r="C456" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" t="s">
+        <v>10</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F456" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>30</v>
+      </c>
+      <c r="C457" t="s">
+        <v>13</v>
+      </c>
+      <c r="D457" t="s">
+        <v>10</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F457" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B458" t="s">
+        <v>19</v>
+      </c>
+      <c r="C458" t="s">
+        <v>13</v>
+      </c>
+      <c r="D458" t="s">
+        <v>10</v>
+      </c>
+      <c r="E458" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F458" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>20</v>
+      </c>
+      <c r="C459" t="s">
+        <v>21</v>
+      </c>
+      <c r="D459" t="s">
+        <v>10</v>
+      </c>
+      <c r="E459" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F459" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>122</v>
+      </c>
+      <c r="C460" t="s">
+        <v>23</v>
+      </c>
+      <c r="D460" t="s">
+        <v>10</v>
+      </c>
+      <c r="E460" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F460" t="s">
+        <v>24</v>
+      </c>
+      <c r="G460" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>27</v>
+      </c>
+      <c r="C461" t="s">
+        <v>28</v>
+      </c>
+      <c r="D461" t="s">
+        <v>10</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F461" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
